--- a/Cve.xlsx
+++ b/Cve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\vulnerability scoring\New test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40AC95A-5E8C-46A6-BAA2-EE0E67AB53F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D860BC-228D-4D3C-B169-63535F1296BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{0C68001B-BBCE-441A-871A-388CE8F1C4A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C68001B-BBCE-441A-871A-388CE8F1C4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,135 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
-  <si>
-    <t>cve_id</t>
-  </si>
-  <si>
-    <t>cve-2016-20016</t>
-  </si>
-  <si>
-    <t>cve-2017-20149</t>
-  </si>
-  <si>
-    <t>cve-2018-7600</t>
-  </si>
-  <si>
-    <t>cve-2019-11510</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+  <si>
+    <t>CVE-2024-6763</t>
+  </si>
+  <si>
+    <t>CVE-2024-52046</t>
+  </si>
+  <si>
+    <t>CVE-2024-47835</t>
+  </si>
+  <si>
+    <t>CVE-2024-47834</t>
+  </si>
+  <si>
+    <t>CVE-2024-7264</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>CVE-2024-47778</t>
+  </si>
+  <si>
+    <t>CVE-2024-47777</t>
+  </si>
+  <si>
+    <t>cve-2022-41073</t>
+  </si>
+  <si>
+    <t>cve-2022-37958</t>
+  </si>
+  <si>
+    <t>cve-2023-41060</t>
   </si>
   <si>
     <t>cve-2019-19781</t>
   </si>
   <si>
-    <t>cve-2020-0601</t>
+    <t>cve-2022-22963</t>
+  </si>
+  <si>
+    <t>cve-2019-0604</t>
   </si>
   <si>
     <t>cve-2020-0688</t>
   </si>
   <si>
-    <t>cve-2020-1472</t>
-  </si>
-  <si>
     <t>cve-2020-5902</t>
-  </si>
-  <si>
-    <t>cve-2020-8209</t>
-  </si>
-  <si>
-    <t>cve-2021-21972</t>
-  </si>
-  <si>
-    <t>cve-2021-26855</t>
-  </si>
-  <si>
-    <t>cve-2021-26857</t>
-  </si>
-  <si>
-    <t>cve-2021-26858</t>
-  </si>
-  <si>
-    <t>cve-2021-27065</t>
-  </si>
-  <si>
-    <t>cve-2021-21985</t>
-  </si>
-  <si>
-    <t>cve-2021-34473</t>
-  </si>
-  <si>
-    <t>cve-2021-34523</t>
-  </si>
-  <si>
-    <t>cve-2021-34527</t>
-  </si>
-  <si>
-    <t>cve-2021-31207</t>
-  </si>
-  <si>
-    <t>cve-2022-21999</t>
-  </si>
-  <si>
-    <t>cve-2022-21882</t>
-  </si>
-  <si>
-    <t>cve-2022-21907</t>
-  </si>
-  <si>
-    <t>cve-2022-41040</t>
-  </si>
-  <si>
-    <t>cve-2022-41082</t>
-  </si>
-  <si>
-    <t>cve-2022-41091</t>
-  </si>
-  <si>
-    <t>cve-2022-41073</t>
-  </si>
-  <si>
-    <t>cve-2022-37958</t>
-  </si>
-  <si>
-    <t>cve-2023-41060</t>
-  </si>
-  <si>
-    <t>cve-2022-22963</t>
-  </si>
-  <si>
-    <t>cve-2019-0604</t>
-  </si>
-  <si>
-    <t>cve-2021-42321</t>
-  </si>
-  <si>
-    <t>cve-2024-23222</t>
-  </si>
-  <si>
-    <t>cve-2023-20887</t>
-  </si>
-  <si>
-    <t>cve-2023-41065</t>
-  </si>
-  <si>
-    <t>cve-2019-3500</t>
-  </si>
-  <si>
-    <t>cve-2019-5009</t>
-  </si>
-  <si>
-    <t>cve-2019-0248</t>
-  </si>
-  <si>
-    <t>cve-2019-0538</t>
-  </si>
-  <si>
-    <t>cve-2019-0556</t>
-  </si>
-  <si>
-    <t>cve-2019-0557</t>
-  </si>
-  <si>
-    <t>cve-2019-0558</t>
   </si>
 </sst>
 </file>
@@ -536,247 +455,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030120A7-C60D-41FA-8FF0-46AE089A3126}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
